--- a/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,85</t>
+          <t>-4,69; 1,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,63</t>
+          <t>-4,77; 0,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 3,27</t>
+          <t>-3,77; 3,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 0,83</t>
+          <t>-7,03; 1,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 2,1</t>
+          <t>-5,39; 1,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,86</t>
+          <t>-3,23; 6,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 0,82</t>
+          <t>-3,89; 0,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 0,76</t>
+          <t>-3,74; 0,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,68</t>
+          <t>-2,39; 3,79</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-90,3; 109,03</t>
+          <t>-92,15; 98,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-90,45; 109,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,86; 384,83</t>
+          <t>-71,95; 368,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 0,59</t>
+          <t>-5,13; 0,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; -0,62</t>
+          <t>-5,78; -0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,98</t>
+          <t>-4,85; 1,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,67</t>
+          <t>-3,3; 2,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 1,94</t>
+          <t>-3,36; 2,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,3</t>
+          <t>-4,74; -0,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,67</t>
+          <t>-3,26; 0,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; -0,08</t>
+          <t>-3,97; -0,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; -0,01</t>
+          <t>-4,18; -0,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,29; 37,56</t>
+          <t>-82,97; 29,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-92,86; -8,16</t>
+          <t>-93,04; -1,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-84,36; 51,56</t>
+          <t>-83,27; 64,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-78,05; 182,19</t>
+          <t>-75,55; 168,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,13; 140,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 103,71</t>
+          <t>-100,0; 41,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,76; 29,31</t>
+          <t>-69,8; 34,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,03; 3,86</t>
+          <t>-78,81; -0,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-83,74; 8,33</t>
+          <t>-83,89; 2,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,27</t>
+          <t>-2,75; 1,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,18</t>
+          <t>-2,68; 1,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,94</t>
+          <t>-2,8; 0,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -1,15</t>
+          <t>-9,61; -1,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 0,76</t>
+          <t>-8,09; 0,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,44; -2,35</t>
+          <t>-10,7; -2,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; -0,37</t>
+          <t>-4,84; -0,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,87</t>
+          <t>-3,93; 0,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; -1,06</t>
+          <t>-5,51; -1,14</t>
         </is>
       </c>
     </row>
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 12,32</t>
+          <t>-100,0; 58,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-91,15; 56,74</t>
+          <t>-90,3; 50,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 44,88</t>
+          <t>-100,0; 26,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,7; 60,65</t>
+          <t>-81,23; 88,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 20,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,22</t>
+          <t>-4,34; 1,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 0,71</t>
+          <t>-4,74; 0,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 0,04</t>
+          <t>-4,67; 0,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,58</t>
+          <t>-5,44; 1,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -1,36</t>
+          <t>-7,81; -1,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 9,43</t>
+          <t>-5,47; 9,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 0,67</t>
+          <t>-4,03; 0,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,31; -1,12</t>
+          <t>-5,22; -1,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 5,03</t>
+          <t>-4,18; 3,55</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 124,81</t>
+          <t>-90,82; 132,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 189,84</t>
+          <t>-100,0; 233,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,74; 28,23</t>
+          <t>-89,86; 41,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-83,75; 102,12</t>
+          <t>-83,74; 71,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -17,78</t>
+          <t>-100,0; -20,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 360,29</t>
+          <t>-100,0; 407,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-75,54; 43,43</t>
+          <t>-78,29; 27,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-95,08; -22,54</t>
+          <t>-94,97; -23,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-87,86; 218,3</t>
+          <t>-88,66; 142,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,97; -0,02</t>
+          <t>-2,98; 0,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; -0,63</t>
+          <t>-3,27; -0,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; -0,28</t>
+          <t>-3,17; -0,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,56; -0,03</t>
+          <t>-3,45; -0,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,35</t>
+          <t>-3,64; -0,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,5</t>
+          <t>-3,88; 2,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,5</t>
+          <t>-2,74; -0,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; -1,0</t>
+          <t>-3,18; -0,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,57</t>
+          <t>-2,98; 0,85</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-75,95; 6,59</t>
+          <t>-76,25; 7,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-85,45; -26,37</t>
+          <t>-83,6; -11,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-78,84; -4,89</t>
+          <t>-79,77; -13,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-73,4; 1,71</t>
+          <t>-74,14; 0,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,24; -11,41</t>
+          <t>-75,62; -11,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-87,83; 135,36</t>
+          <t>-88,27; 105,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-67,76; -15,93</t>
+          <t>-66,77; -14,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,11; -33,47</t>
+          <t>-74,87; -31,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-75,89; 38,67</t>
+          <t>-76,16; 43,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5B_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-0,9</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-1,48</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 1,99</t>
+          <t>-6,11; 1,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 0,96</t>
+          <t>-5,71; 2,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,87</t>
+          <t>-3,44; 6,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 1,01</t>
+          <t>-4,65; 1,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,63</t>
+          <t>-4,58; 1,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,2</t>
+          <t>-3,8; 3,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 0,84</t>
+          <t>-3,82; 0,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,61</t>
+          <t>-3,91; 0,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,79</t>
+          <t>-2,37; 3,55</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-60,4%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-41,65%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42,88%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-39,38%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-64,7%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-18,59%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-60,4%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-41,65%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,57%</t>
+          <t>-20,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>13,13%</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-92,15; 98,93</t>
+          <t>-90,5; 140,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,36; 105,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-71,95; 368,03</t>
+          <t>-71,2; 322,24</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-2,13</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-3,05</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>-1,91</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-2,0</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-1,91</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-1,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,48</t>
+          <t>-2,95; 2,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; -0,77</t>
+          <t>-3,36; 2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 1,22</t>
+          <t>-4,56; 0,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 2,47</t>
+          <t>-5,03; 0,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,1</t>
+          <t>-6,03; -0,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; -0,06</t>
+          <t>-5,22; 1,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,71</t>
+          <t>-3,32; 0,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; -0,15</t>
+          <t>-3,83; -0,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; -0,11</t>
+          <t>-3,86; -0,03</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-9,3%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-20,51%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-69,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-49,33%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-70,79%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-44,25%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-9,3%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-20,51%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-68,43%</t>
+          <t>-43,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-53,03%</t>
+          <t>-52,57%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,97; 29,96</t>
+          <t>-71,47; 214,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-93,04; -1,98</t>
+          <t>-74,94; 160,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,27; 64,86</t>
+          <t>-100,0; 83,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,55; 168,07</t>
+          <t>-83,47; 40,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,13; 140,33</t>
+          <t>-93,93; 2,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 41,71</t>
+          <t>-84,74; 66,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,8; 34,07</t>
+          <t>-72,6; 30,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-78,81; -0,27</t>
+          <t>-81,39; -3,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-83,89; 2,84</t>
+          <t>-82,34; 9,25</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-4,65</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,96</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-5,36</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,5</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,12</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-4,65</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,96</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-2,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,28</t>
+          <t>-9,4; -0,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,7</t>
+          <t>-7,58; 1,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,95</t>
+          <t>-10,48; -2,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -1,13</t>
+          <t>-2,68; 1,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 0,68</t>
+          <t>-2,5; 1,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -2,29</t>
+          <t>-3,41; 0,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,84; -0,34</t>
+          <t>-4,85; -0,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 0,89</t>
+          <t>-3,97; 0,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -1,14</t>
+          <t>-5,56; -1,12</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-86,77%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-55,23%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-44,02%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-10,17%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-57,84%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-86,77%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-55,23%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-62,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-91,66%</t>
+          <t>-92,31%</t>
         </is>
       </c>
     </row>
@@ -1223,29 +1223,29 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 92,04</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-87,79; 93,62</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 58,67</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-90,3; 50,73</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 26,85</t>
+          <t>-100,0; 24,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-81,23; 88,25</t>
+          <t>-81,79; 73,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -13,01</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-4,14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5,36</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-1,63</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-1,94</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-4,14</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>1,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,17</t>
+          <t>-5,2; 2,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 0,8</t>
+          <t>-7,31; -1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,17</t>
+          <t>-5,22; 32,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 1,97</t>
+          <t>-4,73; 1,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,81; -1,65</t>
+          <t>-5,12; 0,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 9,94</t>
+          <t>-4,67; 0,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,65</t>
+          <t>-4,1; 0,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -1,19</t>
+          <t>-5,06; -1,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 3,55</t>
+          <t>-3,66; 20,41</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-33,05%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-88,49%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>114,55%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-52,79%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-62,63%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-63,83%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-33,05%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-88,49%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,52%</t>
+          <t>-65,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-41,33%</t>
+          <t>36,74%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-90,82; 132,83</t>
+          <t>-83,44; 125,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 233,97</t>
+          <t>-100,0; -7,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-89,86; 41,88</t>
+          <t>-100,0; 1879,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-83,74; 71,29</t>
+          <t>-93,46; 164,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -20,71</t>
+          <t>-100,0; 152,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 407,21</t>
+          <t>-91,18; 59,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-78,29; 27,45</t>
+          <t>-78,25; 40,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-94,97; -23,28</t>
+          <t>-94,7; -20,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-88,66; 142,72</t>
+          <t>-86,93; 883,26</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-1,46</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-1,91</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,81</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-2,05</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,06</t>
+          <t>-3,68; -0,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,48</t>
+          <t>-3,69; -0,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,17; -0,37</t>
+          <t>-3,66; 14,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,45; -0,04</t>
+          <t>-2,82; -0,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,64; -0,37</t>
+          <t>-3,36; -0,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,62</t>
+          <t>-3,15; -0,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,48</t>
+          <t>-2,77; -0,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,18; -0,94</t>
+          <t>-3,07; -0,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,85</t>
+          <t>-2,72; 5,83</t>
         </is>
       </c>
     </row>
@@ -1602,39 +1602,39 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-47,24%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-53,49%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-48,55%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-63,38%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-56,48%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-47,24%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-53,49%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
+          <t>-57,55%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
           <t>-48,08%</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-48,08%</t>
-        </is>
-      </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
           <t>-58,14%</t>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-52,16%</t>
+          <t>-15,78%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,25; 7,54</t>
+          <t>-73,01; -0,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,6; -11,08</t>
+          <t>-77,0; -14,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,77; -13,41</t>
+          <t>-87,54; 464,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-74,14; 0,65</t>
+          <t>-75,32; 4,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,62; -11,8</t>
+          <t>-83,44; -16,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-88,27; 105,18</t>
+          <t>-79,09; -16,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-66,77; -14,55</t>
+          <t>-69,89; -21,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,87; -31,51</t>
+          <t>-74,46; -31,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-76,16; 43,54</t>
+          <t>-75,79; 194,8</t>
         </is>
       </c>
     </row>
